--- a/data/long_dif/BESCORE_R-Estudios-long_dif.xlsx
+++ b/data/long_dif/BESCORE_R-Estudios-long_dif.xlsx
@@ -680,7 +680,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Peor diferencia negativa</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -821,7 +821,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -962,7 +962,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Mejor Diferencia Positiva</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Peor diferencia negativa</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1248,7 +1248,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1389,7 +1389,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Mejor Diferencia Positiva</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Peor diferencia negativa</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1675,7 +1675,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1816,7 +1816,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Mejor Diferencia Positiva</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Peor diferencia negativa</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -2102,7 +2102,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2243,7 +2243,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Mejor Diferencia Positiva</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
